--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ComptrollerObjectProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ComptrollerObjectProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9BC559-438F-4890-B04A-19F50064DD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F14F93A-381B-4DB8-BFD7-78BB34C8A4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C25441A-51F4-43D9-A1DD-792C2B41C053}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6C25441A-51F4-43D9-A1DD-792C2B41C053}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>CompObject</t>
   </si>
   <si>
-    <t>0005 - FIXED CHARGES TEST</t>
-  </si>
-  <si>
     <t>Object</t>
   </si>
   <si>
@@ -272,6 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 01 - DEFAULT VALUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0076 - FIXED CHARGES TEST 1 </t>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FCE01C-7500-4A8B-985D-BEF618A6C4BC}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
@@ -858,13 +858,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -875,10 +875,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -889,10 +889,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -903,10 +903,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -917,10 +917,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -931,10 +931,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -945,10 +945,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -959,10 +959,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -973,10 +973,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -987,10 +987,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1001,7 +1001,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED8AD75-9C8C-48BF-829B-E339B3546C66}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1071,37 +1071,37 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="P1" s="1">
         <v>1099</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>12</v>
@@ -1127,37 +1127,37 @@
         <v>2023</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="M2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="R2" s="5"/>
     </row>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ComptrollerObjectProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ComptrollerObjectProfile_AddNewProfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F14F93A-381B-4DB8-BFD7-78BB34C8A4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A647093-5439-4885-B1AA-E18EA3B277A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6C25441A-51F4-43D9-A1DD-792C2B41C053}"/>
   </bookViews>
@@ -163,9 +163,6 @@
     <t>SourceGroup</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0001 - SALARIES AND WAGES </t>
-  </si>
-  <si>
     <t>dropdown_Object_cop</t>
   </si>
   <si>
@@ -202,15 +199,6 @@
     <t>Nacubo</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1111 - 1111111111111111111111111 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1234 - ABCD </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99 - TESTING </t>
-  </si>
-  <si>
     <t>ObjectType</t>
   </si>
   <si>
@@ -272,6 +260,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 0076 - FIXED CHARGES TEST 1 </t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>5950</t>
+  </si>
+  <si>
+    <t>0002</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -395,6 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FCE01C-7500-4A8B-985D-BEF618A6C4BC}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -858,7 +859,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>39</v>
@@ -875,10 +876,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -889,10 +890,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -903,10 +904,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -917,10 +918,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -931,10 +932,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -945,10 +946,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -959,10 +960,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -973,10 +974,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -987,10 +988,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1001,7 +1002,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -1025,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED8AD75-9C8C-48BF-829B-E339B3546C66}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1080,28 +1081,28 @@
         <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P1" s="1">
         <v>1099</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>12</v>
@@ -1127,37 +1128,37 @@
         <v>2023</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>57</v>
+      <c r="I2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="R2" s="5"/>
     </row>
